--- a/data/trans_dic/CONS_ANTIDE-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANTIDE-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -568,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>17,91%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,9</t>
+          <t>3,14; 7,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 13,15</t>
+          <t>4,52; 10,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 9,16</t>
+          <t>2,04; 5,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,22</t>
+          <t>2,36; 12,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,99; 11,53</t>
+          <t>5,97; 10,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,39; 36,19</t>
+          <t>11,4; 16,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,2; 14,8</t>
+          <t>6,86; 11,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 8,13</t>
+          <t>20,16; 37,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,17; 8,04</t>
+          <t>5,38; 8,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,73; 23,9</t>
+          <t>9,54; 13,31</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,24; 11,97</t>
+          <t>5,15; 8,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,5</t>
+          <t>12,6; 24,12</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>6,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>9,74%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,03</t>
+          <t>1,4; 2,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,03</t>
+          <t>1,34; 3,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 3,87</t>
+          <t>1,74; 3,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,29</t>
+          <t>5,16; 9,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,06; 7,53</t>
+          <t>2,85; 4,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,39; 15,15</t>
+          <t>4,45; 8,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,5; 7,83</t>
+          <t>4,73; 7,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,8; 4,12</t>
+          <t>10,33; 14,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,55; 4,97</t>
+          <t>2,31; 3,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,24; 11,31</t>
+          <t>3,25; 5,87</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,27; 5,57</t>
+          <t>3,49; 4,98</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 3,0</t>
+          <t>8,14; 11,48</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>2,49%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>4,35%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,21%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,67%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>3,27%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,87%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>7,89%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>3,88%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,65%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>2,87%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>6,32%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>3,07%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>1,8%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,98</t>
+          <t>0,35; 1,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,73</t>
+          <t>1,27; 4,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,81</t>
+          <t>0,34; 2,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,31</t>
+          <t>2,86; 6,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,57</t>
+          <t>1,61; 3,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,87; 10,0</t>
+          <t>2,05; 5,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,57</t>
+          <t>1,79; 4,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,56</t>
+          <t>5,89; 10,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,91</t>
+          <t>1,15; 2,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 7,81</t>
+          <t>1,94; 4,27</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,11</t>
+          <t>1,3; 2,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,48</t>
+          <t>5,07; 7,8</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>9,75%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 2,75</t>
+          <t>1,6; 2,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,72; 7,55</t>
+          <t>2,01; 3,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 4,17</t>
+          <t>1,65; 2,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,49; 2,31</t>
+          <t>4,72; 7,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 6,93</t>
+          <t>3,45; 4,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,26; 15,35</t>
+          <t>5,41; 8,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,73; 8,37</t>
+          <t>4,85; 6,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,35; 4,41</t>
+          <t>11,23; 15,25</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,63; 4,65</t>
+          <t>2,7; 3,56</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,57; 11,06</t>
+          <t>4,15; 6,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,1; 6,16</t>
+          <t>3,45; 4,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 3,23</t>
+          <t>8,58; 11,07</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de antidepresivos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4491</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>16347</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7282</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5527</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10282</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>54221</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>24560</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>32855</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>14773</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>70569</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>31842</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>38382</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2764; 6840</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10297; 24486</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4395; 11785</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2293; 12254</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7632; 13179</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>45018; 64335</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>18771; 31871</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23629; 43608</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11618; 18710</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>59415; 82850</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>25205; 39794</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>27011; 51709</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8571</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>36567</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21143</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>24856</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15373</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>94617</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>50838</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>44398</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>23944</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>131184</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>71981</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>69255</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6336; 11576</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18951; 50744</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15011; 29954</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>18401; 32183</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>12315; 19180</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>61631; 122657</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>41091; 62325</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>36610; 52955</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20423; 28346</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>90902; 163944</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>60428; 86284</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>57921; 81617</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1129</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11449</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3708</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>9767</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4767</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14478</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11966</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>22271</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5896</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>25927</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>15675</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>32039</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>530; 2380</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5831; 19674</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1294; 8328</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6413; 15003</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3130; 6903</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9088; 22333</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7467; 18081</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16629; 28666</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3982; 8211</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>17510; 38584</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10353; 22714</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>25698; 39534</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>14191</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>64363</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>32132</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>40150</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>30421</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>163316</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>87365</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>99525</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>44613</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>227680</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>119497</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>139675</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11107; 17746</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>42214; 82865</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>24057; 42005</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>31997; 50895</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>25971; 35277</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>120288; 193265</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>75641; 101196</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>84665; 114955</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>39056; 51541</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>179527; 261142</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>104192; 136764</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>122876; 158485</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_ANTIDE-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANTIDE-Estudios-trans_dic.xlsx
@@ -535,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos</t>
+          <t>Consumo de antidepresivos (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1262,7 +1262,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de antidepresivos</t>
+          <t>Consumo de antidepresivos (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_ANTIDE-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANTIDE-Estudios-trans_dic.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 7,77</t>
+          <t>2,59; 6,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,52; 10,75</t>
+          <t>4,58; 10,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 12,62</t>
+          <t>2,56; 13,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,97; 10,32</t>
+          <t>5,73; 9,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,4; 16,3</t>
+          <t>11,3; 16,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -760,17 +760,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,16; 37,2</t>
+          <t>20,48; 36,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,38; 8,67</t>
+          <t>5,05; 7,72</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,54; 13,31</t>
+          <t>9,21; 13,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -780,7 +780,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,6; 24,12</t>
+          <t>12,81; 24,12</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -865,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 2,55</t>
+          <t>1,6; 2,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,6</t>
+          <t>1,43; 3,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,16; 9,02</t>
+          <t>5,26; 9,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 4,44</t>
+          <t>2,79; 4,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,45; 8,85</t>
+          <t>4,13; 8,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +900,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,33; 14,95</t>
+          <t>10,37; 15,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,31; 3,2</t>
+          <t>2,33; 3,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 5,87</t>
+          <t>3,38; 5,81</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,14; 11,48</t>
+          <t>8,25; 11,44</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1005,12 +1005,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 1,57</t>
+          <t>0,34; 1,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,28</t>
+          <t>1,22; 4,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1020,17 +1020,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,68</t>
+          <t>2,79; 6,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,55</t>
+          <t>1,54; 3,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,04</t>
+          <t>2,1; 5,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1040,17 +1040,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,89; 10,16</t>
+          <t>6,12; 10,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,37</t>
+          <t>1,21; 2,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,94; 4,27</t>
+          <t>2,0; 4,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,07; 7,8</t>
+          <t>5,12; 7,77</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,56</t>
+          <t>1,59; 2,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,95</t>
+          <t>2,05; 3,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1160,17 +1160,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,72; 7,5</t>
+          <t>4,72; 7,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,45; 4,68</t>
+          <t>3,25; 4,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 8,69</t>
+          <t>5,39; 8,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1180,17 +1180,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,23; 15,25</t>
+          <t>11,3; 15,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,7; 3,56</t>
+          <t>2,57; 3,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,15; 6,04</t>
+          <t>4,15; 6,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,58; 11,07</t>
+          <t>8,62; 11,03</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4491</t>
+          <t>3375</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10282</t>
+          <t>9193</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14773</t>
+          <t>12568</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -1520,12 +1520,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2764; 6840</t>
+          <t>2136; 5031</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10297; 24486</t>
+          <t>10445; 24374</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1535,17 +1535,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2293; 12254</t>
+          <t>2482; 13348</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7632; 13179</t>
+          <t>6965; 11728</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>45018; 64335</t>
+          <t>44591; 64762</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1555,17 +1555,17 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23629; 43608</t>
+          <t>24004; 43353</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11618; 18710</t>
+          <t>10295; 15747</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>59415; 82850</t>
+          <t>57354; 82432</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>27011; 51709</t>
+          <t>27449; 51694</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8571</t>
+          <t>9894</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>15373</t>
+          <t>15442</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23944</t>
+          <t>25336</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1728,12 +1728,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6336; 11576</t>
+          <t>7395; 13233</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18951; 50744</t>
+          <t>20086; 53369</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1743,17 +1743,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18401; 32183</t>
+          <t>18777; 32500</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12315; 19180</t>
+          <t>12380; 19143</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>61631; 122657</t>
+          <t>57239; 122236</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1763,17 +1763,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>36610; 52955</t>
+          <t>36743; 53644</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20423; 28346</t>
+          <t>21079; 29877</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>90902; 163944</t>
+          <t>94562; 162424</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>57921; 81617</t>
+          <t>58671; 81337</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1868,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1129</t>
+          <t>1379</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4767</t>
+          <t>5422</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5896</t>
+          <t>6802</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1936,12 +1936,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>530; 2380</t>
+          <t>604; 2819</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5831; 19674</t>
+          <t>5602; 19488</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1951,17 +1951,17 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6413; 15003</t>
+          <t>6260; 14262</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3130; 6903</t>
+          <t>3509; 7625</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9088; 22333</t>
+          <t>9310; 22870</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1971,17 +1971,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>16629; 28666</t>
+          <t>17278; 28848</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3982; 8211</t>
+          <t>4870; 9418</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>17510; 38584</t>
+          <t>18078; 38110</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>25698; 39534</t>
+          <t>25965; 39356</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>14191</t>
+          <t>14649</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2096,7 +2096,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>30421</t>
+          <t>30057</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>44613</t>
+          <t>44706</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11107; 17746</t>
+          <t>11475; 18263</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>42214; 82865</t>
+          <t>42956; 83616</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2159,17 +2159,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31997; 50895</t>
+          <t>32055; 50634</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25971; 35277</t>
+          <t>25799; 35158</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>120288; 193265</t>
+          <t>119938; 192574</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -2179,17 +2179,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>84665; 114955</t>
+          <t>85145; 116845</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>39056; 51541</t>
+          <t>38973; 50642</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>179527; 261142</t>
+          <t>179341; 262107</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -2199,7 +2199,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>122876; 158485</t>
+          <t>123450; 158026</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/CONS_ANTIDE-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_ANTIDE-Estudios-trans_dic.xlsx
@@ -569,62 +569,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -657,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>6,8%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5,69%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>4,09%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,18%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,37%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>5,69%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>13,85%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>28,03%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8,97%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>7,57%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>13,74%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>8,97%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>28,03%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>11,24%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>17,91%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6,51%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>6,16%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>11,34%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>6,51%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>17,91%</t>
         </is>
       </c>
     </row>
@@ -725,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>4,41; 10,12</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2,56; 13,74</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2,04; 5,46</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>2,59; 6,09</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4,58; 10,7</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,04; 5,46</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>2,56; 13,74</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>11,4; 16,65</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>20,48; 36,98</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6,86; 11,65</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>5,73; 9,66</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>11,3; 16,41</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>6,86; 11,65</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>20,48; 36,98</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>9,16; 13,13</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12,81; 24,12</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 8,13</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>5,05; 7,72</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>9,21; 13,24</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>5,15; 8,13</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>12,81; 24,12</t>
         </is>
       </c>
     </row>
@@ -797,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,24%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6,96%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,45%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>2,14%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,59%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,45%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,96%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>8,03%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12,53%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5,85%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>3,48%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,83%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>5,85%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>12,53%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>5,62%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>9,74%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,16%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>2,8%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>4,69%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>4,16%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>9,74%</t>
         </is>
       </c>
     </row>
@@ -865,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>2,39; 4,51</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5,26; 9,11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1,74; 3,47</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>1,6; 2,87</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,43; 3,79</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,74; 3,47</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>5,26; 9,11</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>6,84; 9,57</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10,37; 15,14</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4,73; 7,17</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>2,79; 4,31</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>4,13; 8,82</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>4,73; 7,17</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>10,37; 15,14</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>4,86; 6,56</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8,25; 11,44</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3,49; 4,98</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>2,33; 3,3</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>3,38; 5,81</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>3,49; 4,98</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>8,25; 11,44</t>
         </is>
       </c>
     </row>
@@ -937,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4,35%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,79%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,49%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,98%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,35%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>3,48%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7,89%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,87%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>2,38%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,27%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>2,87%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>7,89%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>2,89%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,32%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>1,69%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>2,87%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>1,97%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>6,32%</t>
         </is>
       </c>
     </row>
@@ -1005,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1,13; 4,09</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2,79; 6,35</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0,34; 2,2</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>0,34; 1,61</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,22; 4,24</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,34; 2,2</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2,79; 6,35</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>2,26; 5,31</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6,12; 10,22</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1,79; 4,34</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>1,54; 3,34</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>2,1; 5,16</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>1,79; 4,34</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>6,12; 10,22</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>2,05; 4,25</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5,12; 7,77</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 2,86</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>1,21; 2,33</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>2,0; 4,22</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>1,3; 2,86</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>5,12; 7,77</t>
         </is>
       </c>
     </row>
@@ -1077,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3,45%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5,92%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2,21%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>2,04%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,07%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,21%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,92%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>8,15%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13,2%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5,6%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>3,79%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,34%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>5,6%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>13,2%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9,75%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>3,96%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>2,95%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>5,27%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>3,96%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>9,75%</t>
         </is>
       </c>
     </row>
@@ -1145,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>2,72; 4,36</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4,72; 7,46</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1,65; 2,88</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>1,59; 2,54</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,05; 3,99</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,65; 2,88</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>4,72; 7,46</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>7,28; 9,24</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11,3; 15,5</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4,85; 6,49</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>3,25; 4,43</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>5,39; 8,66</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>4,85; 6,49</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>11,3; 15,5</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>5,29; 6,53</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>8,62; 11,03</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3,45; 4,53</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>2,57; 3,35</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>4,15; 6,07</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>3,45; 4,53</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>8,62; 11,03</t>
         </is>
       </c>
     </row>
@@ -1296,62 +1296,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -1384,62 +1384,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>83</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>72</t>
         </is>
       </c>
     </row>
@@ -1452,62 +1452,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>17331</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5527</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7282</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>3375</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>16347</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>7282</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>5527</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>59879</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>32855</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>24560</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>9193</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>54221</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>24560</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>32855</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>77210</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>38382</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>31842</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>12568</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>70569</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>31842</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>38382</t>
         </is>
       </c>
     </row>
@@ -1520,62 +1520,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>11247; 25791</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2482; 13348</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4395; 11785</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>2136; 5031</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>10445; 24374</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4395; 11785</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2482; 13348</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>49261; 71978</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>24004; 43353</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>18771; 31871</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>6965; 11728</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>44591; 64762</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>18771; 31871</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>24004; 43353</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>62955; 90227</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>27449; 51694</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>25205; 39794</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>10295; 15747</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>57354; 82432</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>25205; 39794</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>27449; 51694</t>
         </is>
       </c>
     </row>
@@ -1592,62 +1592,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>52</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>95</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>147</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>187</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>155</t>
         </is>
       </c>
     </row>
@@ -1660,62 +1660,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>41762</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>24856</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21143</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>9894</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>36567</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>21143</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>24856</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>102062</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>44398</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>50838</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>15442</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>94617</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>50838</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>44398</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>143824</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>69255</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>71981</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>25336</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>131184</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>71981</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>69255</t>
         </is>
       </c>
     </row>
@@ -1728,62 +1728,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>30749; 58127</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18777; 32500</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15011; 29954</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>7395; 13233</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>20086; 53369</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>15011; 29954</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>18777; 32500</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>86904; 121595</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>36743; 53644</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>41091; 62325</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>12380; 19143</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>57239; 122236</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>41091; 62325</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>36743; 53644</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>124435; 167935</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>58671; 81337</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>60428; 86284</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>21079; 29877</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>94562; 162424</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>60428; 86284</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>58671; 81337</t>
         </is>
       </c>
     </row>
@@ -1800,62 +1800,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>38</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>93</t>
         </is>
       </c>
     </row>
@@ -1868,62 +1868,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>11812</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9767</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3708</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>1379</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>11449</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3708</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>9767</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>17261</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22271</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11966</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>5422</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>14478</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>11966</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>22271</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>29072</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>32039</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>15675</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>6802</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>25927</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>15675</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>32039</t>
         </is>
       </c>
     </row>
@@ -1936,62 +1936,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>5781; 20839</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6260; 14262</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1294; 8328</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>604; 2819</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5602; 19488</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1294; 8328</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6260; 14262</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>11201; 26321</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>17278; 28848</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7467; 18081</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>3509; 7625</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>9310; 22870</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>7467; 18081</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>17278; 28848</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>20638; 42696</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>25965; 39356</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10353; 22714</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>4870; 9418</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>18078; 38110</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>10353; 22714</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>25965; 39356</t>
         </is>
       </c>
     </row>
@@ -2008,62 +2008,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>83</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>98</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>185</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
         <is>
           <t>268</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>268</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>341</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>243</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>320</t>
         </is>
       </c>
     </row>
@@ -2076,62 +2076,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>70904</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>40150</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>32132</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>14649</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>64363</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>32132</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>40150</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>179202</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>99525</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>87365</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>30057</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>163316</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>87365</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>99525</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>250106</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>139675</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>119497</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>44706</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>227680</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>119497</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>139675</t>
         </is>
       </c>
     </row>
@@ -2144,62 +2144,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>55778; 89568</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>32055; 50634</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>24057; 42005</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>11475; 18263</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>42956; 83616</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>24057; 42005</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>32055; 50634</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>160128; 203289</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>85145; 116845</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>75641; 101196</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>25799; 35158</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>119938; 192574</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>75641; 101196</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>85145; 116845</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>224734; 277701</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>123450; 158026</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>104192; 136764</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>38973; 50642</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>179341; 262107</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>104192; 136764</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>123450; 158026</t>
         </is>
       </c>
     </row>
